--- a/Blatt6/Praktikum 6.xlsx
+++ b/Blatt6/Praktikum 6.xlsx
@@ -125,13 +125,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -341,22 +345,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.171119078624702</c:v>
+                  <c:v>0.216926869350863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.298405648357871</c:v>
+                  <c:v>0.454649827784156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.506733509287685</c:v>
+                  <c:v>0.778761061946903</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.727941176470588</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.631925079083537</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.594402636541478</c:v>
+                  <c:v>0.453933228256197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,22 +458,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0798149397134169</c:v>
+                  <c:v>0.114047087623299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.167338129496403</c:v>
+                  <c:v>0.287503403212633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.357034224557417</c:v>
+                  <c:v>0.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.533747962461821</c:v>
+                  <c:v>0.79577995478523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.641264771031192</c:v>
+                  <c:v>0.894662524710534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.732190217057012</c:v>
+                  <c:v>0.997481108312343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,22 +571,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0670792505867222</c:v>
+                  <c:v>0.0932093680122396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.134369625699697</c:v>
+                  <c:v>0.222409435551811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.308154532580061</c:v>
+                  <c:v>0.460532054077628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.502882675122514</c:v>
+                  <c:v>0.46281957633309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.578451494137219</c:v>
+                  <c:v>0.967623701893708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.587053390115692</c:v>
+                  <c:v>0.992481203007519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,22 +684,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0467109241912922</c:v>
+                  <c:v>0.0651570309125686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0895113989224767</c:v>
+                  <c:v>0.142286099258927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.205938324951101</c:v>
+                  <c:v>0.325858876774326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.317516753566066</c:v>
+                  <c:v>0.50728582866293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.458183991794612</c:v>
+                  <c:v>0.660275114631096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.530601863748158</c:v>
+                  <c:v>0.730964467005076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,11 +714,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24582031"/>
-        <c:axId val="64988410"/>
+        <c:axId val="38691119"/>
+        <c:axId val="63058277"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24582031"/>
+        <c:axId val="38691119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64988410"/>
+        <c:crossAx val="63058277"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -788,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64988410"/>
+        <c:axId val="63058277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24582031"/>
+        <c:crossAx val="38691119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,9 +888,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>511200</xdr:colOff>
+      <xdr:colOff>511560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -900,8 +904,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8940600" y="2126880"/>
-        <a:ext cx="5619600" cy="2838240"/>
+        <a:off x="8946720" y="2035800"/>
+        <a:ext cx="5622840" cy="2837880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -922,10 +926,10 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -940,353 +944,353 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="2" t="n">
         <f aca="false">B2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="2" t="n">
         <f aca="false">C2</f>
         <v>300</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="2" t="n">
         <f aca="false">D2</f>
         <v>500</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="2" t="n">
         <f aca="false">E2</f>
         <v>1000</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="2" t="n">
         <f aca="false">MIN(B3:E8)</f>
-        <v>2.02362</v>
+        <v>3168</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>11.8258</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>25.3539</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>30.1676</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>43.3222</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="B3" s="2" t="n">
+        <v>14604</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>27778</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>33988</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>48621</v>
+      </c>
+      <c r="J3" s="2" t="n">
         <f aca="false">A3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="2" t="n">
         <f aca="false">$P$2/B3</f>
-        <v>0.171119078624702</v>
-      </c>
-      <c r="L3" s="0" t="n">
+        <v>0.216926869350863</v>
+      </c>
+      <c r="L3" s="2" t="n">
         <f aca="false">$P$2/C3</f>
-        <v>0.0798149397134169</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>0.114047087623299</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <f aca="false">$P$2/D3</f>
-        <v>0.0670792505867222</v>
-      </c>
-      <c r="N3" s="0" t="n">
+        <v>0.0932093680122396</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <f aca="false">$P$2/E3</f>
-        <v>0.0467109241912922</v>
+        <v>0.0651570309125686</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>6.78144</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>12.093</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>15.0601</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>22.6074</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="B4" s="2" t="n">
+        <v>6968</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>11019</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>14244</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>22265</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <f aca="false">A4</f>
         <v>2</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">$P$2/B4</f>
-        <v>0.298405648357871</v>
-      </c>
-      <c r="L4" s="0" t="n">
+        <v>0.454649827784156</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <f aca="false">$P$2/C4</f>
-        <v>0.167338129496403</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>0.287503403212633</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <f aca="false">$P$2/D4</f>
-        <v>0.134369625699697</v>
-      </c>
-      <c r="N4" s="0" t="n">
+        <v>0.222409435551811</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <f aca="false">$P$2/E4</f>
-        <v>0.0895113989224767</v>
+        <v>0.142286099258927</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3.99346</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>5.66786</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>6.5669</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>9.82634</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="B5" s="2" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5544</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6879</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>9722</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <f aca="false">A5</f>
         <v>5</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">$P$2/B5</f>
-        <v>0.506733509287685</v>
-      </c>
-      <c r="L5" s="0" t="n">
+        <v>0.778761061946903</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <f aca="false">$P$2/C5</f>
-        <v>0.357034224557417</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M5" s="2" t="n">
         <f aca="false">$P$2/D5</f>
-        <v>0.308154532580061</v>
-      </c>
-      <c r="N5" s="0" t="n">
+        <v>0.460532054077628</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <f aca="false">$P$2/E5</f>
-        <v>0.205938324951101</v>
+        <v>0.325858876774326</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>2.02362</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>3.79134</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4.02404</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>6.37327</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="B6" s="2" t="n">
+        <v>4352</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3981</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>6845</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>6245</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <f aca="false">A6</f>
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">$P$2/B6</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="n">
+        <v>0.727941176470588</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <f aca="false">$P$2/C6</f>
-        <v>0.533747962461821</v>
-      </c>
-      <c r="M6" s="0" t="n">
+        <v>0.79577995478523</v>
+      </c>
+      <c r="M6" s="2" t="n">
         <f aca="false">$P$2/D6</f>
-        <v>0.502882675122514</v>
-      </c>
-      <c r="N6" s="0" t="n">
+        <v>0.46281957633309</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <f aca="false">$P$2/E6</f>
-        <v>0.317516753566066</v>
+        <v>0.50728582866293</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>3.20231</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>3.15567</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3.49834</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>4.41661</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="B7" s="2" t="n">
+        <v>3168</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3541</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>3274</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>4798</v>
+      </c>
+      <c r="J7" s="2" t="n">
         <f aca="false">A7</f>
         <v>15</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">$P$2/B7</f>
-        <v>0.631925079083537</v>
-      </c>
-      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <f aca="false">$P$2/C7</f>
-        <v>0.641264771031192</v>
-      </c>
-      <c r="M7" s="0" t="n">
+        <v>0.894662524710534</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <f aca="false">$P$2/D7</f>
-        <v>0.578451494137219</v>
-      </c>
-      <c r="N7" s="0" t="n">
+        <v>0.967623701893708</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <f aca="false">$P$2/E7</f>
-        <v>0.458183991794612</v>
+        <v>0.660275114631096</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>3.40446</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2.76379</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>3.44708</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3.81382</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="B8" s="2" t="n">
+        <v>6979</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3192</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>4334</v>
+      </c>
+      <c r="J8" s="2" t="n">
         <f aca="false">A8</f>
         <v>20</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="2" t="n">
         <f aca="false">$P$2/B8</f>
-        <v>0.594402636541478</v>
-      </c>
-      <c r="L8" s="0" t="n">
+        <v>0.453933228256197</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <f aca="false">$P$2/C8</f>
-        <v>0.732190217057012</v>
-      </c>
-      <c r="M8" s="0" t="n">
+        <v>0.997481108312343</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <f aca="false">$P$2/D8</f>
-        <v>0.587053390115692</v>
-      </c>
-      <c r="N8" s="0" t="n">
+        <v>0.992481203007519</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <f aca="false">$P$2/E8</f>
-        <v>0.530601863748158</v>
+        <v>0.730964467005076</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>14604</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>27778</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>33988</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>48621</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>6968</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>11019</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>14244</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>22265</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>4068</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>5544</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>6879</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>9722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>4352</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>3981</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>6845</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>6245</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>3168</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>3541</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>3274</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>4798</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>6979</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>3176</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>3192</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>4334</v>
       </c>
     </row>
